--- a/GetGems.xlsx
+++ b/GetGems.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10977ea98b33673c/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Utilisateurs\malle\Documents\GitHub\GG-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="8_{CA09E790-9A7D-4DC9-9B98-B660862FE8C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB7EB208-45F8-4B7C-B4C4-9A83275FF3F2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD77DFB-A54C-4858-85B9-BB6AA67DAFD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27630" yWindow="1170" windowWidth="21600" windowHeight="11505" xr2:uid="{3E563816-3B90-4B3C-8E5A-34FDD7FED9C5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3E563816-3B90-4B3C-8E5A-34FDD7FED9C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Commandes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>daily</t>
   </si>
@@ -296,13 +296,19 @@
   </si>
   <si>
     <t>24 x (1,4)^n</t>
+  </si>
+  <si>
+    <t>marketbet</t>
+  </si>
+  <si>
+    <t>Équation de l'XP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,8 +316,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,19 +332,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,13 +391,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,9 +402,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,975 +766,1135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB29494F-F1C1-4A28-AB79-73D7CF140F37}">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="11.42578125" style="2"/>
-    <col min="9" max="9" width="11.42578125" style="3"/>
-    <col min="10" max="10" width="20.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="11.42578125" style="12"/>
+    <col min="9" max="9" width="11.42578125" style="8"/>
+    <col min="10" max="10" width="20.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="8"/>
+    <col min="12" max="12" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="22" width="11.42578125" style="6"/>
+    <col min="23" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="H1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="15">
+        <v>7</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>8</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="15">
+        <v>7</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="18">
+        <v>1</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>4</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="15">
+        <v>7</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="18">
+        <v>2</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15">
+        <v>4</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="15">
+        <v>7</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="18">
+        <v>3</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="15">
+        <v>2</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="18">
+        <v>4</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="15">
+        <v>6</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="18">
+        <v>5</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="15">
+        <v>3</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="18">
+        <v>6</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="15">
+        <v>10</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="18">
+        <v>7</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="15">
+        <v>5</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="15">
+        <v>10</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="18">
+        <v>8</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="15">
+        <v>10</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="18">
+        <v>9</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="17">
+        <v>10</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="S13" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="T13" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="U13" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J14" s="13"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J15" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" s="18">
+        <v>11</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K16" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="D18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="K19" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="15">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2">
-        <v>7</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="5" t="s">
+      <c r="K20" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="15">
+        <v>1</v>
+      </c>
+      <c r="K21" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="15">
+        <v>1</v>
+      </c>
+      <c r="K22" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="15">
+        <v>2</v>
+      </c>
+      <c r="K23" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="15">
+        <v>2</v>
+      </c>
+      <c r="K24" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="8">
         <v>23</v>
       </c>
-      <c r="Q3" s="5" t="s">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="8">
         <v>24</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="5" t="s">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2">
-        <v>7</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2">
-        <v>7</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="1">
-        <v>3</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="1">
-        <v>4</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="1">
-        <v>5</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="1">
-        <v>6</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2">
-        <v>10</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="1">
-        <v>7</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="2">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2">
-        <v>10</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" s="1">
-        <v>8</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2">
-        <v>10</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" s="1">
-        <v>9</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" s="1">
-        <v>10</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" s="1">
-        <v>11</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K16" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K17" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K18" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K19" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K20" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K21" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="2">
-        <v>2</v>
-      </c>
-      <c r="K28" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2</v>
-      </c>
-      <c r="K29" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="1">
-        <v>30</v>
-      </c>
-    </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40"/>
-      <c r="C40"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6227D776-10E4-481D-A613-AFAF4EA5CC77}">
-  <dimension ref="A2:J41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="3"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3"/>
-    <col min="10" max="10" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2"/>
+    <col min="3" max="4" width="11.42578125" style="4"/>
+    <col min="5" max="5" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="2"/>
+    <col min="7" max="8" width="11.42578125" style="4"/>
+    <col min="9" max="9" width="11.42578125" style="3"/>
+    <col min="10" max="10" width="11.42578125" style="2"/>
+    <col min="11" max="12" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="E7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="E14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>3</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>7</v>
       </c>
     </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+    </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>4</v>
       </c>
     </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+    </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>10</v>
       </c>
     </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+    </row>
   </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GetGems.xlsx
+++ b/GetGems.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Utilisateurs\malle\Documents\GitHub\GG-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD77DFB-A54C-4858-85B9-BB6AA67DAFD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F83AA5-BF36-4603-B1BA-0844EEEF5AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3E563816-3B90-4B3C-8E5A-34FDD7FED9C5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{3E563816-3B90-4B3C-8E5A-34FDD7FED9C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Commandes" sheetId="1" r:id="rId1"/>
     <sheet name="Objets" sheetId="2" r:id="rId2"/>
+    <sheet name="Traduction" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="145">
   <si>
     <t>daily</t>
   </si>
@@ -302,6 +303,165 @@
   </si>
   <si>
     <t>Équation de l'XP</t>
+  </si>
+  <si>
+    <t>Objet</t>
+  </si>
+  <si>
+    <t>Améliorations</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>diamond shovel</t>
+  </si>
+  <si>
+    <t>iron shovel</t>
+  </si>
+  <si>
+    <t>diamond pickaxe</t>
+  </si>
+  <si>
+    <t>iron pickaxe</t>
+  </si>
+  <si>
+    <t>tropical fish</t>
+  </si>
+  <si>
+    <t>blow fish</t>
+  </si>
+  <si>
+    <t>pierre</t>
+  </si>
+  <si>
+    <t>fer</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>diamant</t>
+  </si>
+  <si>
+    <t>emeraude</t>
+  </si>
+  <si>
+    <t>rubis</t>
+  </si>
+  <si>
+    <t>poisson</t>
+  </si>
+  <si>
+    <t>poisson tropical</t>
+  </si>
+  <si>
+    <t>poisson globe</t>
+  </si>
+  <si>
+    <t>pieuvre</t>
+  </si>
+  <si>
+    <t>graine</t>
+  </si>
+  <si>
+    <t>patate</t>
+  </si>
+  <si>
+    <t>chêne</t>
+  </si>
+  <si>
+    <t>sapin</t>
+  </si>
+  <si>
+    <t>raisin</t>
+  </si>
+  <si>
+    <t>palmier</t>
+  </si>
+  <si>
+    <t>houblon</t>
+  </si>
+  <si>
+    <t>hops</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>vin</t>
+  </si>
+  <si>
+    <t>bière</t>
+  </si>
+  <si>
+    <t>chocolat</t>
+  </si>
+  <si>
+    <t>frites</t>
+  </si>
+  <si>
+    <t>bonbon</t>
+  </si>
+  <si>
+    <t>sucette</t>
+  </si>
+  <si>
+    <t>citrouille</t>
+  </si>
+  <si>
+    <t>tarte à la citrouille</t>
+  </si>
+  <si>
+    <t>gateau</t>
+  </si>
+  <si>
+    <t>canne à peche</t>
+  </si>
+  <si>
+    <t>pioche</t>
+  </si>
+  <si>
+    <t>pioche en fer</t>
+  </si>
+  <si>
+    <t>pioche en diamant</t>
+  </si>
+  <si>
+    <t>pelle</t>
+  </si>
+  <si>
+    <t>pelle en fer</t>
+  </si>
+  <si>
+    <t>pelle en diamant</t>
+  </si>
+  <si>
+    <t>plantation</t>
+  </si>
+  <si>
+    <t>tonneau</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>banque</t>
+  </si>
+  <si>
+    <t>planting</t>
+  </si>
+  <si>
+    <t>sac à dos</t>
+  </si>
+  <si>
+    <t>ameçon</t>
+  </si>
+  <si>
+    <t>hyper sac</t>
   </si>
 </sst>
 </file>
@@ -391,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -450,6 +610,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,7 +948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB29494F-F1C1-4A28-AB79-73D7CF140F37}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
@@ -1444,7 +1624,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,4 +2077,636 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D783BFBE-6ECC-4CA1-8FD1-045D25F1443F}">
+  <dimension ref="A1:J63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="20" customWidth="1"/>
+    <col min="3" max="4" width="20" style="26" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="26"/>
+    <col min="7" max="8" width="11.42578125" style="24"/>
+    <col min="9" max="9" width="11.42578125" style="25"/>
+    <col min="10" max="10" width="11.42578125" style="26"/>
+    <col min="11" max="16384" width="11.42578125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="28"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="28"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>